--- a/Point.xlsx
+++ b/Point.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D30565-5C10-4715-B478-97634EA7F689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA834FD-320A-4265-9A3C-392D0ECCD4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2EA52F38-C5C8-41F9-9829-9A7B249F0107}"/>
   </bookViews>
@@ -90,22 +90,22 @@
     <t>CẮM TRẠI</t>
   </si>
   <si>
-    <t>Bàn</t>
-  </si>
-  <si>
-    <t>Ảnh Chúa</t>
-  </si>
-  <si>
-    <t>Kinh Thánh</t>
-  </si>
-  <si>
-    <t>Hoa</t>
-  </si>
-  <si>
-    <t>Bạt Ngồi</t>
-  </si>
-  <si>
-    <t>Cổng</t>
+    <t>Bàn (5đ)</t>
+  </si>
+  <si>
+    <t>Ảnh Chúa (5đ)</t>
+  </si>
+  <si>
+    <t>Kinh Thánh (5đ)</t>
+  </si>
+  <si>
+    <t>Hoa (5đ)</t>
+  </si>
+  <si>
+    <t>Bạt Ngồi (5đ)</t>
+  </si>
+  <si>
+    <t>Cổng (5đ)</t>
   </si>
 </sst>
 </file>
@@ -326,19 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -356,6 +344,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,18 +385,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -993,124 +982,124 @@
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1135,7 +1124,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:H1048576"/>
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,7 +1155,7 @@
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
@@ -1190,7 +1179,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -1200,76 +1189,76 @@
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
